--- a/data/trans_orig/P6603-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6603-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96853498-8655-40BE-99A0-1E0A2FCB1B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EA5BE3C-F8C7-4A90-B6AC-0783090B1612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A9F57956-346F-420B-B641-3108F54619B3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3C9253ED-9B05-4AA4-B98F-191BFAC93F12}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="792">
   <si>
     <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -77,2314 +77,2335 @@
     <t>56,19%</t>
   </si>
   <si>
-    <t>42,5%</t>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2016 (Tasa respuesta: 35,39%)</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2023 (Tasa respuesta: 20,48%)</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
   </si>
   <si>
     <t>69,79%</t>
   </si>
   <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
   </si>
   <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
   </si>
   <si>
     <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2015 (Tasa respuesta: 35,39%)</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2023 (Tasa respuesta: 20,48%)</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
   </si>
   <si>
     <t>2,8%</t>
@@ -2805,7 +2826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9355B9-5A47-44EE-9BE4-E905CFA40E9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25AD3A0-679B-403C-A8DE-7EDC44A46964}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3524,13 +3545,13 @@
         <v>121663</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,13 +3566,13 @@
         <v>56136</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -3560,13 +3581,13 @@
         <v>13995</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -3575,13 +3596,13 @@
         <v>70131</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,13 +3617,13 @@
         <v>27623</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3611,13 +3632,13 @@
         <v>3241</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -3626,13 +3647,13 @@
         <v>30863</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,7 +3709,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3700,13 +3721,13 @@
         <v>283474</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>193</v>
@@ -3715,13 +3736,13 @@
         <v>192570</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>454</v>
@@ -3730,13 +3751,13 @@
         <v>476044</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3772,13 @@
         <v>69441</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -3805,10 +3826,10 @@
         <v>138</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -3817,13 +3838,13 @@
         <v>1732</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M21" s="7">
         <v>37</v>
@@ -3832,13 +3853,13 @@
         <v>39431</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +3874,13 @@
         <v>16806</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -3868,13 +3889,13 @@
         <v>1522</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -3883,13 +3904,13 @@
         <v>18328</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,7 +3966,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3957,13 +3978,13 @@
         <v>389409</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>307</v>
@@ -3972,13 +3993,13 @@
         <v>324501</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>712</v>
@@ -3987,13 +4008,13 @@
         <v>713910</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +4029,13 @@
         <v>72781</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -4023,13 +4044,13 @@
         <v>35184</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>104</v>
@@ -4038,13 +4059,13 @@
         <v>107966</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,13 +4080,13 @@
         <v>63811</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -4074,13 +4095,13 @@
         <v>21163</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>88</v>
@@ -4089,13 +4110,13 @@
         <v>84974</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,13 +4131,13 @@
         <v>27418</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -4125,13 +4146,13 @@
         <v>7274</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M27" s="7">
         <v>35</v>
@@ -4140,13 +4161,13 @@
         <v>34692</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4235,13 @@
         <v>1298726</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H29" s="7">
         <v>831</v>
@@ -4229,13 +4250,13 @@
         <v>867788</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M29" s="7">
         <v>2076</v>
@@ -4244,13 +4265,13 @@
         <v>2166514</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4286,13 @@
         <v>318071</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H30" s="7">
         <v>94</v>
@@ -4280,13 +4301,13 @@
         <v>98245</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M30" s="7">
         <v>394</v>
@@ -4295,13 +4316,13 @@
         <v>416316</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4337,13 @@
         <v>208327</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H31" s="7">
         <v>42</v>
@@ -4334,10 +4355,10 @@
         <v>70</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>107</v>
+        <v>209</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M31" s="7">
         <v>247</v>
@@ -4346,13 +4367,13 @@
         <v>252647</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4388,13 @@
         <v>77790</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -4382,13 +4403,13 @@
         <v>14014</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M32" s="7">
         <v>85</v>
@@ -4397,13 +4418,13 @@
         <v>91805</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>219</v>
+        <v>142</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,7 +4480,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4480,7 +4501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DE60B3-C61C-4821-8434-133F8BA13423}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F602B9A-AF07-453D-A55A-2B0B19AC5D29}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4497,7 +4518,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4604,13 +4625,13 @@
         <v>20004</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -4619,13 +4640,13 @@
         <v>21959</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M4" s="7">
         <v>40</v>
@@ -4634,13 +4655,13 @@
         <v>41964</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4676,13 @@
         <v>12677</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4670,13 +4691,13 @@
         <v>2087</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -4685,13 +4706,13 @@
         <v>14764</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4727,13 @@
         <v>12561</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4721,13 +4742,13 @@
         <v>1140</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -4736,13 +4757,13 @@
         <v>13701</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,13 +4778,13 @@
         <v>6490</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4775,10 +4796,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -4787,13 +4808,13 @@
         <v>6490</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4882,13 @@
         <v>118480</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H9" s="7">
         <v>100</v>
@@ -4876,28 +4897,28 @@
         <v>107342</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M9" s="7">
         <v>214</v>
       </c>
       <c r="N9" s="7">
-        <v>225822</v>
+        <v>225821</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,13 +4933,13 @@
         <v>48121</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -4927,13 +4948,13 @@
         <v>16894</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -4942,13 +4963,13 @@
         <v>65015</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,13 +4984,13 @@
         <v>30051</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -4978,13 +4999,13 @@
         <v>10914</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>37</v>
@@ -4993,13 +5014,13 @@
         <v>40965</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,7 +5056,7 @@
         <v>35</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>287</v>
+        <v>78</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
@@ -5044,13 +5065,13 @@
         <v>18576</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>120</v>
+        <v>287</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>288</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,7 +5113,7 @@
         <v>331</v>
       </c>
       <c r="N13" s="7">
-        <v>350378</v>
+        <v>350377</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>47</v>
@@ -5118,13 +5139,13 @@
         <v>232824</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>190</v>
@@ -5133,13 +5154,13 @@
         <v>209765</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>407</v>
@@ -5148,13 +5169,13 @@
         <v>442589</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5190,13 @@
         <v>98109</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H15" s="7">
         <v>35</v>
@@ -5184,13 +5205,13 @@
         <v>38435</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M15" s="7">
         <v>123</v>
@@ -5199,13 +5220,13 @@
         <v>136544</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>304</v>
+        <v>130</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5241,13 @@
         <v>47520</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -5235,13 +5256,13 @@
         <v>13112</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M16" s="7">
         <v>57</v>
@@ -5250,13 +5271,13 @@
         <v>60631</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,10 +5295,10 @@
         <v>132</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -5286,13 +5307,13 @@
         <v>9132</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -5301,13 +5322,13 @@
         <v>40438</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>175</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,7 +5384,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5375,13 +5396,13 @@
         <v>188332</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H19" s="7">
         <v>152</v>
@@ -5390,13 +5411,13 @@
         <v>169127</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M19" s="7">
         <v>324</v>
@@ -5405,13 +5426,13 @@
         <v>357459</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>260</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5447,13 @@
         <v>73511</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -5441,13 +5462,13 @@
         <v>26440</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M20" s="7">
         <v>90</v>
@@ -5456,13 +5477,13 @@
         <v>99950</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,13 +5498,13 @@
         <v>42743</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -5492,13 +5513,13 @@
         <v>12556</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M21" s="7">
         <v>48</v>
@@ -5507,13 +5528,13 @@
         <v>55299</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5549,13 @@
         <v>15879</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>347</v>
+        <v>106</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -5543,13 +5564,13 @@
         <v>5222</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>119</v>
+        <v>352</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>249</v>
+        <v>354</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -5558,13 +5579,13 @@
         <v>21101</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,7 +5641,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5632,13 +5653,13 @@
         <v>259196</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="H24" s="7">
         <v>219</v>
@@ -5647,13 +5668,13 @@
         <v>229032</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="M24" s="7">
         <v>468</v>
@@ -5662,13 +5683,13 @@
         <v>488228</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,13 +5704,13 @@
         <v>96693</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -5698,13 +5719,13 @@
         <v>46099</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>365</v>
+        <v>309</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M25" s="7">
         <v>139</v>
@@ -5713,13 +5734,13 @@
         <v>142792</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5755,13 @@
         <v>34828</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -5749,13 +5770,13 @@
         <v>11691</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M26" s="7">
         <v>45</v>
@@ -5764,13 +5785,13 @@
         <v>46520</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,13 +5806,13 @@
         <v>27971</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H27" s="7">
         <v>14</v>
@@ -5800,13 +5821,13 @@
         <v>14680</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M27" s="7">
         <v>40</v>
@@ -5815,13 +5836,13 @@
         <v>42651</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>387</v>
+        <v>80</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5889,13 +5910,13 @@
         <v>818836</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H29" s="7">
         <v>680</v>
@@ -5904,13 +5925,13 @@
         <v>737225</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M29" s="7">
         <v>1453</v>
@@ -5919,13 +5940,13 @@
         <v>1556062</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>397</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,13 +5961,13 @@
         <v>329111</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H30" s="7">
         <v>121</v>
@@ -5955,13 +5976,13 @@
         <v>129955</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="M30" s="7">
         <v>430</v>
@@ -5970,13 +5991,13 @@
         <v>459066</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,13 +6012,13 @@
         <v>167704</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>37</v>
+        <v>411</v>
       </c>
       <c r="H31" s="7">
         <v>45</v>
@@ -6006,13 +6027,13 @@
         <v>49412</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="M31" s="7">
         <v>201</v>
@@ -6021,13 +6042,13 @@
         <v>217116</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>411</v>
+        <v>68</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6042,13 +6063,13 @@
         <v>99283</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>281</v>
+        <v>418</v>
       </c>
       <c r="H32" s="7">
         <v>28</v>
@@ -6057,13 +6078,13 @@
         <v>29973</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M32" s="7">
         <v>118</v>
@@ -6072,13 +6093,13 @@
         <v>129256</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,7 +6155,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -6155,7 +6176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8DCFFC-08D1-4365-B4EA-7D819EF0C5AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F01A17-AE42-4117-AE59-1B05269A01BA}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6172,7 +6193,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6279,13 +6300,13 @@
         <v>21537</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -6297,10 +6318,10 @@
         <v>91</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>427</v>
+        <v>54</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
@@ -6309,13 +6330,13 @@
         <v>43365</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,13 +6351,13 @@
         <v>8920</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -6345,13 +6366,13 @@
         <v>6339</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -6360,13 +6381,13 @@
         <v>15260</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6381,13 +6402,13 @@
         <v>10644</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6396,13 +6417,13 @@
         <v>927</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -6411,13 +6432,13 @@
         <v>11572</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>68</v>
+        <v>447</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6453,13 @@
         <v>1812</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>233</v>
+        <v>450</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -6447,13 +6468,13 @@
         <v>796</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -6462,13 +6483,13 @@
         <v>2608</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,13 +6557,13 @@
         <v>119269</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H9" s="7">
         <v>110</v>
@@ -6551,13 +6572,13 @@
         <v>105786</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>457</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M9" s="7">
         <v>223</v>
@@ -6566,13 +6587,13 @@
         <v>225055</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>460</v>
+        <v>297</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,13 +6608,13 @@
         <v>45699</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -6602,13 +6623,13 @@
         <v>21281</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -6617,13 +6638,13 @@
         <v>66980</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>367</v>
+        <v>469</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>336</v>
+        <v>470</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6638,13 +6659,13 @@
         <v>25255</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>72</v>
+        <v>473</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -6653,13 +6674,13 @@
         <v>8792</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>318</v>
+        <v>475</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>416</v>
+        <v>220</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="M11" s="7">
         <v>34</v>
@@ -6668,13 +6689,13 @@
         <v>34047</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6689,13 +6710,13 @@
         <v>9046</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>418</v>
+        <v>480</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>42</v>
+        <v>482</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -6704,13 +6725,13 @@
         <v>1619</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>120</v>
+        <v>484</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -6719,13 +6740,13 @@
         <v>10665</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>386</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6793,13 +6814,13 @@
         <v>233095</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="H14" s="7">
         <v>200</v>
@@ -6808,13 +6829,13 @@
         <v>206271</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="M14" s="7">
         <v>406</v>
@@ -6823,13 +6844,13 @@
         <v>439366</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6844,13 +6865,13 @@
         <v>110702</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="H15" s="7">
         <v>42</v>
@@ -6859,13 +6880,13 @@
         <v>42247</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="M15" s="7">
         <v>142</v>
@@ -6874,13 +6895,13 @@
         <v>152949</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6895,13 +6916,13 @@
         <v>53835</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -6910,13 +6931,13 @@
         <v>18888</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
@@ -6925,13 +6946,13 @@
         <v>72723</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>501</v>
+        <v>415</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>502</v>
+        <v>282</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6946,13 +6967,13 @@
         <v>11757</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>342</v>
+        <v>510</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -6961,13 +6982,13 @@
         <v>6365</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -6976,13 +6997,13 @@
         <v>18123</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>185</v>
+        <v>516</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>317</v>
+        <v>517</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,7 +7059,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7050,13 +7071,13 @@
         <v>162958</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="H19" s="7">
         <v>181</v>
@@ -7065,13 +7086,13 @@
         <v>185052</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="M19" s="7">
         <v>326</v>
@@ -7080,13 +7101,13 @@
         <v>348009</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,13 +7122,13 @@
         <v>121497</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="H20" s="7">
         <v>53</v>
@@ -7116,13 +7137,13 @@
         <v>53277</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="M20" s="7">
         <v>163</v>
@@ -7131,13 +7152,13 @@
         <v>174774</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,13 +7173,13 @@
         <v>58874</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>529</v>
+        <v>401</v>
       </c>
       <c r="H21" s="7">
         <v>23</v>
@@ -7167,13 +7188,13 @@
         <v>23918</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>530</v>
+        <v>289</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="M21" s="7">
         <v>76</v>
@@ -7182,13 +7203,13 @@
         <v>82793</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>438</v>
+        <v>540</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7203,13 +7224,13 @@
         <v>18291</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>214</v>
+        <v>542</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -7218,13 +7239,13 @@
         <v>8311</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>76</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -7233,13 +7254,13 @@
         <v>26602</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>540</v>
+        <v>388</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>538</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,7 +7316,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7307,13 +7328,13 @@
         <v>264468</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="H24" s="7">
         <v>251</v>
@@ -7322,13 +7343,13 @@
         <v>267439</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="M24" s="7">
         <v>509</v>
@@ -7337,13 +7358,13 @@
         <v>531907</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7358,13 +7379,13 @@
         <v>77296</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="H25" s="7">
         <v>37</v>
@@ -7373,13 +7394,13 @@
         <v>38846</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="M25" s="7">
         <v>114</v>
@@ -7388,13 +7409,13 @@
         <v>116141</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>302</v>
+        <v>564</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7409,13 +7430,13 @@
         <v>39772</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>346</v>
+        <v>567</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -7424,13 +7445,13 @@
         <v>10231</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>288</v>
+        <v>209</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>561</v>
+        <v>538</v>
       </c>
       <c r="M26" s="7">
         <v>49</v>
@@ -7439,13 +7460,13 @@
         <v>50003</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>562</v>
+        <v>139</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>569</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>563</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7460,13 +7481,13 @@
         <v>17687</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -7475,13 +7496,13 @@
         <v>6956</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>567</v>
+        <v>420</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>569</v>
+        <v>80</v>
       </c>
       <c r="M27" s="7">
         <v>24</v>
@@ -7490,13 +7511,13 @@
         <v>24643</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>572</v>
+        <v>515</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7561,16 +7582,16 @@
         <v>743</v>
       </c>
       <c r="D29" s="7">
-        <v>801326</v>
+        <v>801327</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="H29" s="7">
         <v>765</v>
@@ -7579,13 +7600,13 @@
         <v>786377</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="M29" s="7">
         <v>1508</v>
@@ -7594,13 +7615,13 @@
         <v>1587703</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7615,13 +7636,13 @@
         <v>364115</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="H30" s="7">
         <v>161</v>
@@ -7630,13 +7651,13 @@
         <v>161989</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>346</v>
+        <v>589</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="M30" s="7">
         <v>500</v>
@@ -7645,13 +7666,13 @@
         <v>526103</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>589</v>
+        <v>558</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7666,13 +7687,13 @@
         <v>188380</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="H31" s="7">
         <v>62</v>
@@ -7681,13 +7702,13 @@
         <v>62756</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="M31" s="7">
         <v>240</v>
@@ -7696,13 +7717,13 @@
         <v>251137</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>165</v>
+        <v>599</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>596</v>
+        <v>404</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7717,13 +7738,13 @@
         <v>58594</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>599</v>
+        <v>175</v>
       </c>
       <c r="H32" s="7">
         <v>23</v>
@@ -7732,13 +7753,13 @@
         <v>24047</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="M32" s="7">
         <v>77</v>
@@ -7747,13 +7768,13 @@
         <v>82641</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7765,7 +7786,7 @@
         <v>1314</v>
       </c>
       <c r="D33" s="7">
-        <v>1412415</v>
+        <v>1412416</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>47</v>
@@ -7809,7 +7830,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -7830,7 +7851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5EA615-6A78-4B28-977C-FC64BB619194}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3797EFBB-ECEB-45D4-9A6D-34E88D098D7A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7847,7 +7868,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7954,13 +7975,13 @@
         <v>12445</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -7969,13 +7990,13 @@
         <v>14887</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -7984,13 +8005,13 @@
         <v>27332</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>614</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,13 +8026,13 @@
         <v>8351</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>618</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -8020,13 +8041,13 @@
         <v>1963</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -8035,13 +8056,13 @@
         <v>10314</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8056,13 +8077,13 @@
         <v>1519</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8074,10 +8095,10 @@
         <v>35</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -8086,13 +8107,13 @@
         <v>1519</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8110,10 +8131,10 @@
         <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -8125,10 +8146,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -8140,10 +8161,10 @@
         <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8211,13 +8232,13 @@
         <v>70640</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="H9" s="7">
         <v>123</v>
@@ -8226,13 +8247,13 @@
         <v>82642</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="M9" s="7">
         <v>186</v>
@@ -8241,13 +8262,13 @@
         <v>153282</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8262,13 +8283,13 @@
         <v>59992</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -8277,13 +8298,13 @@
         <v>26434</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>247</v>
+        <v>646</v>
       </c>
       <c r="M10" s="7">
         <v>102</v>
@@ -8292,13 +8313,13 @@
         <v>86427</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8313,13 +8334,13 @@
         <v>15599</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -8328,13 +8349,13 @@
         <v>4788</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>435</v>
+        <v>654</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -8343,13 +8364,13 @@
         <v>20387</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>594</v>
+        <v>655</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>649</v>
+        <v>187</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,13 +8385,13 @@
         <v>6257</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -8379,13 +8400,13 @@
         <v>3113</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -8394,13 +8415,13 @@
         <v>9370</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>656</v>
+        <v>181</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>310</v>
+        <v>663</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8468,13 +8489,13 @@
         <v>222939</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="H14" s="7">
         <v>189</v>
@@ -8483,13 +8504,13 @@
         <v>136508</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="M14" s="7">
         <v>341</v>
@@ -8498,13 +8519,13 @@
         <v>359448</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8519,13 +8540,13 @@
         <v>94961</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="H15" s="7">
         <v>75</v>
@@ -8534,13 +8555,13 @@
         <v>61893</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="M15" s="7">
         <v>165</v>
@@ -8549,13 +8570,13 @@
         <v>156855</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>489</v>
+        <v>680</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8570,13 +8591,13 @@
         <v>34136</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>676</v>
+        <v>567</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -8585,13 +8606,13 @@
         <v>13362</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -8600,13 +8621,13 @@
         <v>47498</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>681</v>
+        <v>250</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8621,13 +8642,13 @@
         <v>12741</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>685</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -8636,13 +8657,13 @@
         <v>10179</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>281</v>
+        <v>473</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -8651,13 +8672,13 @@
         <v>22919</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>409</v>
+        <v>692</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>689</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8713,7 +8734,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8725,13 +8746,13 @@
         <v>110976</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>692</v>
+        <v>265</v>
       </c>
       <c r="H19" s="7">
         <v>145</v>
@@ -8740,13 +8761,13 @@
         <v>115700</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="M19" s="7">
         <v>240</v>
@@ -8755,13 +8776,13 @@
         <v>226676</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8776,13 +8797,13 @@
         <v>48251</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="H20" s="7">
         <v>36</v>
@@ -8791,13 +8812,13 @@
         <v>30007</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>703</v>
+        <v>242</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="M20" s="7">
         <v>78</v>
@@ -8806,13 +8827,13 @@
         <v>78259</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8827,13 +8848,13 @@
         <v>15403</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>108</v>
+        <v>710</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>133</v>
+        <v>711</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -8842,13 +8863,13 @@
         <v>3121</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="M21" s="7">
         <v>23</v>
@@ -8857,13 +8878,13 @@
         <v>18525</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>213</v>
+        <v>717</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8878,13 +8899,13 @@
         <v>4535</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -8893,13 +8914,13 @@
         <v>5754</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>200</v>
+        <v>724</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -8908,13 +8929,13 @@
         <v>10288</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>725</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8970,7 +8991,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8982,13 +9003,13 @@
         <v>175399</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="H24" s="7">
         <v>219</v>
@@ -8997,13 +9018,13 @@
         <v>160746</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="M24" s="7">
         <v>389</v>
@@ -9012,13 +9033,13 @@
         <v>336145</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9033,13 +9054,13 @@
         <v>37197</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -9048,13 +9069,13 @@
         <v>24288</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>307</v>
+        <v>740</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="M25" s="7">
         <v>74</v>
@@ -9063,13 +9084,13 @@
         <v>61485</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9084,13 +9105,13 @@
         <v>15194</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>746</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -9099,13 +9120,13 @@
         <v>6603</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="M26" s="7">
         <v>20</v>
@@ -9114,13 +9135,13 @@
         <v>21796</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>314</v>
+        <v>751</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>742</v>
+        <v>752</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9135,13 +9156,13 @@
         <v>7171</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="H27" s="7">
         <v>14</v>
@@ -9150,13 +9171,13 @@
         <v>9285</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>747</v>
+        <v>311</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="M27" s="7">
         <v>21</v>
@@ -9165,13 +9186,13 @@
         <v>16456</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9239,13 +9260,13 @@
         <v>592400</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="H29" s="7">
         <v>696</v>
@@ -9254,13 +9275,13 @@
         <v>510483</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="M29" s="7">
         <v>1188</v>
@@ -9269,13 +9290,13 @@
         <v>1102883</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9290,13 +9311,13 @@
         <v>248752</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="H30" s="7">
         <v>191</v>
@@ -9305,13 +9326,13 @@
         <v>144586</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="M30" s="7">
         <v>428</v>
@@ -9320,13 +9341,13 @@
         <v>393338</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9341,13 +9362,13 @@
         <v>81850</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>772</v>
+        <v>433</v>
       </c>
       <c r="H31" s="7">
         <v>38</v>
@@ -9356,13 +9377,13 @@
         <v>27874</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>773</v>
+        <v>221</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="M31" s="7">
         <v>115</v>
@@ -9371,13 +9392,13 @@
         <v>109725</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>777</v>
+        <v>354</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9392,13 +9413,13 @@
         <v>30704</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="H32" s="7">
         <v>35</v>
@@ -9407,13 +9428,13 @@
         <v>28330</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>183</v>
+        <v>788</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>782</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>775</v>
       </c>
       <c r="M32" s="7">
         <v>60</v>
@@ -9422,13 +9443,13 @@
         <v>59034</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9484,7 +9505,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
